--- a/biology/Zoologie/Cechenena_aegrota/Cechenena_aegrota.xlsx
+++ b/biology/Zoologie/Cechenena_aegrota/Cechenena_aegrota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cechenena aegrota est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini, de la sous-tribu des Choerocampina et du genre Cechenena.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles de cette espèce ont une envergure de 72 à 76 millimètres, tandis que les femelles ont une envergure de 88 à 92 millimètres. Cette espèce est sexuellement dichromatique, les femelles étant plus sombres et plus brunes que les mâles.
 			Avers de la femelle(coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue au Népal, au nord-est de l' Inde (Sikkim, Meghalaya), au Bangladesh, en Thaïlande, au Laos, au sud de la Chine (Hainan, Hong Kong), au Vietnam, et en Malaisie.</t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de mars à décembre, avec un pic en avril à Hong Kong. Les chenilles se nourrissent des espèces du genre Psychotria.
 </t>
@@ -606,15 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Cechenena aegrota a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1875, sous le nom initial de Pergesa aegrota[1].
-Synonymie
-Pergesa aegrota Butler, 1875 protonyme
-Theretra catori Rothschild, 1894 [2]
-Daphnis chimaera Rothschild, 1894[3]
-Cechenena albicosta Tutt, 1904
-Cechenena aegrota occidentalis Clark, 1935</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Cechenena aegrota a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1875, sous le nom initial de Pergesa aegrota.</t>
         </is>
       </c>
     </row>
@@ -639,10 +653,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pergesa aegrota Butler, 1875 protonyme
+Theretra catori Rothschild, 1894 
+Daphnis chimaera Rothschild, 1894
+Cechenena albicosta Tutt, 1904
+Cechenena aegrota occidentalis Clark, 1935</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cechenena_aegrota</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cechenena_aegrota</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cechenena aegrota aegrota
 Cechenena aegrota kueppersi Eitschberger, 2007 (Nord Vietnam)</t>
